--- a/DbLayouts/L6-共同作業/CdLandOffice.xlsx
+++ b/DbLayouts/L6-共同作業/CdLandOffice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC19F9A3-E5B5-4DAA-80BC-FF0A3794350E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93C2DD-4F89-4F94-BF5A-072990C081EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -228,11 +228,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">LandOfficeCode == </t>
+    <t>RecWord asc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RecWord asc</t>
+    <t>LandOfficeCode =</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1296,9 +1296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1325,10 +1325,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
